--- a/BoardgameSimulator/Reports/Excel2007/ExpensesLog.xlsx
+++ b/BoardgameSimulator/Reports/Excel2007/ExpensesLog.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>Id</t>
   </si>
@@ -36,481 +36,736 @@
     <t>Army</t>
   </si>
   <si>
-    <t>Valiant Minotaur servant of the Horned God</t>
-  </si>
-  <si>
-    <t>9/24/1878</t>
+    <t>Rebelious Siren of the Jungle</t>
+  </si>
+  <si>
+    <t>14751k</t>
+  </si>
+  <si>
+    <t>5/30/1889</t>
   </si>
   <si>
     <t>Poor Hobgoblin of the Land Beyond</t>
   </si>
   <si>
-    <t>Wise Inquisitor of the Basilisk Order</t>
-  </si>
-  <si>
-    <t>5/9/2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undignified Knight </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heroic Slinger </t>
-  </si>
-  <si>
-    <t>10/25/2368</t>
-  </si>
-  <si>
-    <t>Noble Frost Priestess son of Scylla</t>
-  </si>
-  <si>
-    <t>Vicious Vampire son of Medusa</t>
-  </si>
-  <si>
-    <t>11/21/2058</t>
-  </si>
-  <si>
-    <t>Swift Siren of the Skies</t>
-  </si>
-  <si>
-    <t>Stout Banshee of the Skies</t>
-  </si>
-  <si>
-    <t>3/1/1989</t>
-  </si>
-  <si>
-    <t>Wise Turtle ship of the Basilisk Order</t>
-  </si>
-  <si>
-    <t>7/31/2496</t>
-  </si>
-  <si>
-    <t>Simple Mandragora son of Anubis</t>
-  </si>
-  <si>
-    <t>8/17/2477</t>
-  </si>
-  <si>
-    <t>Valiant Nymph of the Skies</t>
-  </si>
-  <si>
-    <t>7/5/2299</t>
-  </si>
-  <si>
-    <t>Swift Rifleman of the Vilains Team</t>
-  </si>
-  <si>
-    <t>Elite Druid of the Lake</t>
-  </si>
-  <si>
-    <t>8/7/1974</t>
-  </si>
-  <si>
-    <t>Twisted Bicorn of the Jungle</t>
-  </si>
-  <si>
-    <t>7/26/2472</t>
-  </si>
-  <si>
-    <t>Gifted Slinger of the Isles</t>
-  </si>
-  <si>
-    <t>9/5/2311</t>
-  </si>
-  <si>
-    <t>Foolish Bicorn of the Underworld</t>
-  </si>
-  <si>
-    <t>9/15/2318</t>
-  </si>
-  <si>
-    <t>Swift Devourer of the Hills</t>
-  </si>
-  <si>
-    <t>Poor Druid of the Lake</t>
-  </si>
-  <si>
-    <t>9/4/2304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vile Nymph </t>
-  </si>
-  <si>
-    <t>Foolish Battering Ram of the Sun</t>
-  </si>
-  <si>
-    <t>5/28/2038</t>
-  </si>
-  <si>
-    <t>Raging Inquisitor of the Woods</t>
-  </si>
-  <si>
-    <t>5/26/1805</t>
-  </si>
-  <si>
-    <t>2/27/2196</t>
-  </si>
-  <si>
-    <t>Pious Knight servant of the Horned God</t>
-  </si>
-  <si>
-    <t>Foul Cannoneer son of Scylla</t>
-  </si>
-  <si>
-    <t>8/10/2024</t>
-  </si>
-  <si>
-    <t>Vicious Devourer of the Woods</t>
-  </si>
-  <si>
-    <t>Foul Devourer of the Vilains Team</t>
-  </si>
-  <si>
-    <t>6/17/2006</t>
-  </si>
-  <si>
-    <t>Pious Crossbowman of the Sun</t>
-  </si>
-  <si>
-    <t>Vicious Swordsman servant of Ra</t>
-  </si>
-  <si>
-    <t>11/16/2267</t>
-  </si>
-  <si>
-    <t>Stout Cockatrice of the Basilisk Order</t>
-  </si>
-  <si>
-    <t>Wise Brute of the Vilains Team</t>
-  </si>
-  <si>
-    <t>1/20/1831</t>
-  </si>
-  <si>
-    <t>Heroic Salamander of the Isles</t>
-  </si>
-  <si>
-    <t>Vicious Mandragora son of Scylla</t>
-  </si>
-  <si>
-    <t>9/1/2413</t>
-  </si>
-  <si>
-    <t>Agile Cockatrice of the Basilisk Order</t>
-  </si>
-  <si>
-    <t>Vicious Drowner from Heaven</t>
-  </si>
-  <si>
-    <t>5/14/1785</t>
-  </si>
-  <si>
-    <t>Gifted Battering Ram son of Medusa</t>
-  </si>
-  <si>
-    <t>5/19/1772</t>
-  </si>
-  <si>
-    <t>11/26/2363</t>
-  </si>
-  <si>
-    <t>Twisted Beastmaster child of the Moon</t>
-  </si>
-  <si>
-    <t>7/3/2432</t>
-  </si>
-  <si>
-    <t>2/21/2040</t>
-  </si>
-  <si>
-    <t>Vile Musketeer servant of Ra</t>
-  </si>
-  <si>
-    <t>7/13/2284</t>
-  </si>
-  <si>
-    <t>Pious Wurm of the Coven</t>
-  </si>
-  <si>
-    <t>2/27/1901</t>
-  </si>
-  <si>
-    <t>5/3/2117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heroic Pixie </t>
-  </si>
-  <si>
-    <t>1/26/2093</t>
-  </si>
-  <si>
-    <t>3/22/2470</t>
-  </si>
-  <si>
-    <t>Vile Inquisitor of the Woods</t>
-  </si>
-  <si>
-    <t>5/7/1931</t>
-  </si>
-  <si>
-    <t>8/24/2446</t>
-  </si>
-  <si>
-    <t>Agile Werewolf son of Scylla</t>
-  </si>
-  <si>
-    <t>8/5/2168</t>
-  </si>
-  <si>
-    <t>Raging Nymph of the Order</t>
-  </si>
-  <si>
-    <t>4/9/2033</t>
-  </si>
-  <si>
-    <t>4/7/2258</t>
-  </si>
-  <si>
-    <t>3/5/2103</t>
-  </si>
-  <si>
-    <t>Foolish Water Hag of the Isles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undignified Frost Priestess </t>
-  </si>
-  <si>
-    <t>12/1/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noble Samurai </t>
-  </si>
-  <si>
-    <t>Pious Catapult Genoese</t>
-  </si>
-  <si>
-    <t>10/27/2330</t>
-  </si>
-  <si>
-    <t>Heroic Cerberus of the Vilains Team</t>
-  </si>
-  <si>
-    <t>9/7/1944</t>
-  </si>
-  <si>
-    <t>1/26/2346</t>
-  </si>
-  <si>
-    <t>Rebelious Siren of the Basilisk Order</t>
-  </si>
-  <si>
-    <t>4/10/1903</t>
-  </si>
-  <si>
-    <t>11/3/2423</t>
-  </si>
-  <si>
-    <t>5/9/2081</t>
-  </si>
-  <si>
-    <t>2/26/1767</t>
-  </si>
-  <si>
-    <t>Pious Boar Rider of the Lake</t>
-  </si>
-  <si>
-    <t>5/12/2177</t>
-  </si>
-  <si>
-    <t>2/9/2082</t>
-  </si>
-  <si>
-    <t>3/16/2425</t>
-  </si>
-  <si>
-    <t>1/31/2326</t>
-  </si>
-  <si>
-    <t>9/2/2040</t>
-  </si>
-  <si>
-    <t>Elite Balista of the Skies</t>
-  </si>
-  <si>
-    <t>10/20/2117</t>
-  </si>
-  <si>
-    <t>4/7/2510</t>
-  </si>
-  <si>
-    <t>10/30/2282</t>
-  </si>
-  <si>
-    <t>8/4/2338</t>
-  </si>
-  <si>
-    <t>1/14/2400</t>
-  </si>
-  <si>
-    <t>5/20/1946</t>
+    <t>5028k</t>
+  </si>
+  <si>
+    <t>Tiny Elemental of the Hills</t>
+  </si>
+  <si>
+    <t>1606k</t>
+  </si>
+  <si>
+    <t>9/4/2100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Siege Tower </t>
+  </si>
+  <si>
+    <t>30260k</t>
+  </si>
+  <si>
+    <t>Stout Knight servant of the Horned God</t>
+  </si>
+  <si>
+    <t>10851k</t>
+  </si>
+  <si>
+    <t>3/18/2083</t>
+  </si>
+  <si>
+    <t>Vicious Elemental of the Woods</t>
+  </si>
+  <si>
+    <t>3304k</t>
+  </si>
+  <si>
+    <t>Foolish Siren of the Vilains Team</t>
+  </si>
+  <si>
+    <t>1878k</t>
+  </si>
+  <si>
+    <t>9/25/1873</t>
+  </si>
+  <si>
+    <t>Clumsy Unicorn servant of the Horned God</t>
+  </si>
+  <si>
+    <t>9838k</t>
+  </si>
+  <si>
+    <t>Vicious Stone-hurler of the Land Beyond</t>
+  </si>
+  <si>
+    <t>10868k</t>
+  </si>
+  <si>
+    <t>6/1/2494</t>
+  </si>
+  <si>
+    <t>Armored Rider child of the Moon</t>
+  </si>
+  <si>
+    <t>753k</t>
+  </si>
+  <si>
+    <t>Clumsy Endrega Warrior from Heaven</t>
+  </si>
+  <si>
+    <t>17199k</t>
+  </si>
+  <si>
+    <t>3/30/2138</t>
+  </si>
+  <si>
+    <t>Noble Pikeman of the Order</t>
+  </si>
+  <si>
+    <t>4185k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Ogre </t>
+  </si>
+  <si>
+    <t>8676k</t>
+  </si>
+  <si>
+    <t>3/28/1941</t>
+  </si>
+  <si>
+    <t>Vicious Stone-hurler servant of Ra</t>
+  </si>
+  <si>
+    <t>20589k</t>
+  </si>
+  <si>
+    <t>Swift Water Hag of the Isles</t>
+  </si>
+  <si>
+    <t>22691k</t>
+  </si>
+  <si>
+    <t>8/1/1935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Ogre </t>
+  </si>
+  <si>
+    <t>11068k</t>
+  </si>
+  <si>
+    <t>Twisted Hobgoblin from Heaven</t>
+  </si>
+  <si>
+    <t>10894k</t>
+  </si>
+  <si>
+    <t>7/3/2181</t>
+  </si>
+  <si>
+    <t>Vicious Beastmaster of the Coven</t>
+  </si>
+  <si>
+    <t>2671k</t>
+  </si>
+  <si>
+    <t>Noble Conjurer of Hell</t>
+  </si>
+  <si>
+    <t>2743k</t>
+  </si>
+  <si>
+    <t>7/27/2257</t>
+  </si>
+  <si>
+    <t>Clumsy Troll son of Anubis</t>
+  </si>
+  <si>
+    <t>606k</t>
+  </si>
+  <si>
+    <t>7/2/2398</t>
+  </si>
+  <si>
+    <t>Simple Stone-hurler servant of Ra</t>
+  </si>
+  <si>
+    <t>20291k</t>
+  </si>
+  <si>
+    <t>Vicious Balista of the Order</t>
+  </si>
+  <si>
+    <t>1312k</t>
+  </si>
+  <si>
+    <t>10/27/1887</t>
+  </si>
+  <si>
+    <t>Vicious Archer child of the Moon</t>
+  </si>
+  <si>
+    <t>15656k</t>
+  </si>
+  <si>
+    <t>5/22/2442</t>
+  </si>
+  <si>
+    <t>Clumsy Conjurer son of Medusa</t>
+  </si>
+  <si>
+    <t>15665k</t>
+  </si>
+  <si>
+    <t>10/16/2434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Werewolf </t>
+  </si>
+  <si>
+    <t>2309k</t>
+  </si>
+  <si>
+    <t>Wise Endrega Warrior of Hell</t>
+  </si>
+  <si>
+    <t>7808k</t>
+  </si>
+  <si>
+    <t>10/8/2369</t>
+  </si>
+  <si>
+    <t>11/19/2032</t>
+  </si>
+  <si>
+    <t>12/18/1929</t>
+  </si>
+  <si>
+    <t>Twisted Composite Bowman of the Jungle</t>
+  </si>
+  <si>
+    <t>9816k</t>
+  </si>
+  <si>
+    <t>12/26/2378</t>
+  </si>
+  <si>
+    <t>Gifted Shieldmaiden son of Scylla</t>
+  </si>
+  <si>
+    <t>2138k</t>
+  </si>
+  <si>
+    <t>12/12/2207</t>
+  </si>
+  <si>
+    <t>Vile Minotaur servant of Ra</t>
+  </si>
+  <si>
+    <t>12805k</t>
+  </si>
+  <si>
+    <t>4/27/2351</t>
+  </si>
+  <si>
+    <t>2356k</t>
+  </si>
+  <si>
+    <t>Gifted Beastmaster of the Isles</t>
+  </si>
+  <si>
+    <t>12132k</t>
+  </si>
+  <si>
+    <t>11/28/2236</t>
+  </si>
+  <si>
+    <t>Clumsy Arachna of the Coven</t>
+  </si>
+  <si>
+    <t>2352k</t>
+  </si>
+  <si>
+    <t>6/21/2259</t>
+  </si>
+  <si>
+    <t>2/22/1878</t>
+  </si>
+  <si>
+    <t>Noble Banshee of the Basilisk Order</t>
+  </si>
+  <si>
+    <t>3661k</t>
+  </si>
+  <si>
+    <t>Undignified Samurai of the Vilains Team</t>
+  </si>
+  <si>
+    <t>25263k</t>
+  </si>
+  <si>
+    <t>7/2/2044</t>
+  </si>
+  <si>
+    <t>Raging Unicorn from Heaven</t>
+  </si>
+  <si>
+    <t>6066k</t>
+  </si>
+  <si>
+    <t>11/13/1949</t>
+  </si>
+  <si>
+    <t>14809k</t>
+  </si>
+  <si>
+    <t>9/16/1802</t>
+  </si>
+  <si>
+    <t>Agile Pikeman of the Underworld</t>
+  </si>
+  <si>
+    <t>10106k</t>
+  </si>
+  <si>
+    <t>24755k</t>
+  </si>
+  <si>
+    <t>3/27/2060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armored Catapult </t>
+  </si>
+  <si>
+    <t>21652k</t>
+  </si>
+  <si>
+    <t>11/27/2325</t>
+  </si>
+  <si>
+    <t>5/13/2312</t>
+  </si>
+  <si>
+    <t>Rebelious Druid son of Scylla</t>
+  </si>
+  <si>
+    <t>11759k</t>
+  </si>
+  <si>
+    <t>Gifted Mandragora of the Lake</t>
+  </si>
+  <si>
+    <t>22097k</t>
+  </si>
+  <si>
+    <t>5/28/2196</t>
+  </si>
+  <si>
+    <t>Heroic Beastmaster son of Anubis</t>
+  </si>
+  <si>
+    <t>8916k</t>
+  </si>
+  <si>
+    <t>Undignified Musketeer of the Land Beyond</t>
+  </si>
+  <si>
+    <t>21145k</t>
+  </si>
+  <si>
+    <t>3/22/2322</t>
+  </si>
+  <si>
+    <t>Foolish Composite Bowman of the Vilains Team</t>
+  </si>
+  <si>
+    <t>12913k</t>
+  </si>
+  <si>
+    <t>2/26/2153</t>
+  </si>
+  <si>
+    <t>3/19/2309</t>
+  </si>
+  <si>
+    <t>Stout Inquisitor of the Woods</t>
+  </si>
+  <si>
+    <t>2110k</t>
+  </si>
+  <si>
+    <t>10/22/2394</t>
+  </si>
+  <si>
+    <t>2/7/2003</t>
+  </si>
+  <si>
+    <t>Agile Frost Priestess son of Scylla</t>
+  </si>
+  <si>
+    <t>9274k</t>
+  </si>
+  <si>
+    <t>1/14/1992</t>
+  </si>
+  <si>
+    <t>8/31/1813</t>
+  </si>
+  <si>
+    <t>11/8/2117</t>
+  </si>
+  <si>
+    <t>2564k</t>
+  </si>
+  <si>
+    <t>1/1/1980</t>
+  </si>
+  <si>
+    <t>11/17/2131</t>
+  </si>
+  <si>
+    <t>Vicious Bicorn of the Underworld</t>
+  </si>
+  <si>
+    <t>60k</t>
+  </si>
+  <si>
+    <t>11/27/1909</t>
+  </si>
+  <si>
+    <t>Swift Battering Ram from Heaven</t>
+  </si>
+  <si>
+    <t>5588k</t>
+  </si>
+  <si>
+    <t>8/5/2468</t>
+  </si>
+  <si>
+    <t>6/24/1815</t>
+  </si>
+  <si>
+    <t>Swift Shadow Adept of the Land Beyond</t>
+  </si>
+  <si>
+    <t>8610k</t>
+  </si>
+  <si>
+    <t>4/20/1876</t>
+  </si>
+  <si>
+    <t>Twisted Cannoneer son of Scylla</t>
+  </si>
+  <si>
+    <t>3774k</t>
+  </si>
+  <si>
+    <t>9/12/2231</t>
+  </si>
+  <si>
+    <t>12/22/2514</t>
+  </si>
+  <si>
+    <t>4/9/2350</t>
+  </si>
+  <si>
+    <t>1/31/2378</t>
+  </si>
+  <si>
+    <t>16184k</t>
+  </si>
+  <si>
+    <t>12/1/2217</t>
+  </si>
+  <si>
+    <t>Valiant Conjurer servant of Ra</t>
+  </si>
+  <si>
+    <t>1576k</t>
+  </si>
+  <si>
+    <t>4/19/1922</t>
+  </si>
+  <si>
+    <t>12/16/1979</t>
+  </si>
+  <si>
+    <t>5/19/2467</t>
+  </si>
+  <si>
+    <t>Raging Inquisitor of the Order</t>
+  </si>
+  <si>
+    <t>2179k</t>
+  </si>
+  <si>
+    <t>Pious Pikeman of the Woods</t>
+  </si>
+  <si>
+    <t>30257k</t>
+  </si>
+  <si>
+    <t>8/14/2198</t>
+  </si>
+  <si>
+    <t>Noble Galley of the Coven</t>
+  </si>
+  <si>
+    <t>16716k</t>
+  </si>
+  <si>
+    <t>10/24/2239</t>
+  </si>
+  <si>
+    <t>Noble Wurm son of Scylla</t>
+  </si>
+  <si>
+    <t>20492k</t>
+  </si>
+  <si>
+    <t>10/8/2177</t>
+  </si>
+  <si>
+    <t>4/26/1948</t>
+  </si>
+  <si>
+    <t>Clumsy Knight son of Medusa</t>
+  </si>
+  <si>
+    <t>1828k</t>
+  </si>
+  <si>
+    <t>Raging Samurai of the Jungle</t>
+  </si>
+  <si>
+    <t>5580k</t>
+  </si>
+  <si>
+    <t>6/21/2292</t>
+  </si>
+  <si>
+    <t>9/8/2321</t>
+  </si>
+  <si>
+    <t>Giant Crossbowman of Avalon</t>
+  </si>
+  <si>
+    <t>2088k</t>
+  </si>
+  <si>
+    <t>2/11/2381</t>
+  </si>
+  <si>
+    <t>11/19/1917</t>
+  </si>
+  <si>
+    <t>Wise Nymph of the Basilisk Order</t>
+  </si>
+  <si>
+    <t>18204k</t>
+  </si>
+  <si>
+    <t>10660k</t>
+  </si>
+  <si>
+    <t>8/6/2320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swift Cannoneer </t>
+  </si>
+  <si>
+    <t>4255k</t>
+  </si>
+  <si>
+    <t>6/25/2287</t>
+  </si>
+  <si>
+    <t>2/11/1808</t>
+  </si>
+  <si>
+    <t>14286k</t>
+  </si>
+  <si>
+    <t>9/2/2036</t>
+  </si>
+  <si>
+    <t>Wild Inquisitor of the Underworld</t>
+  </si>
+  <si>
+    <t>8080k</t>
+  </si>
+  <si>
+    <t>10/8/2044</t>
+  </si>
+  <si>
+    <t>Raging Scout of the Land Beyond</t>
+  </si>
+  <si>
+    <t>4559k</t>
+  </si>
+  <si>
+    <t>Vile Pikeman of the Hills</t>
+  </si>
+  <si>
+    <t>4902k</t>
+  </si>
+  <si>
+    <t>10/16/2223</t>
+  </si>
+  <si>
+    <t>8451k</t>
+  </si>
+  <si>
+    <t>9/12/2378</t>
+  </si>
+  <si>
+    <t>2/18/2440</t>
+  </si>
+  <si>
+    <t>6/22/2464</t>
   </si>
   <si>
     <t>Agile Cockatrice of the Skies</t>
   </si>
   <si>
-    <t>6/5/2410</t>
-  </si>
-  <si>
-    <t>10/3/2324</t>
-  </si>
-  <si>
-    <t>3/17/2205</t>
-  </si>
-  <si>
-    <t>Wise Boar Rider son of Anubis</t>
-  </si>
-  <si>
-    <t>3/4/1958</t>
-  </si>
-  <si>
-    <t>6/9/1916</t>
-  </si>
-  <si>
-    <t>4/30/2357</t>
-  </si>
-  <si>
-    <t>3/18/2059</t>
-  </si>
-  <si>
-    <t>9/5/2253</t>
-  </si>
-  <si>
-    <t>6/13/1790</t>
-  </si>
-  <si>
-    <t>Foul Battleship of the Coven</t>
-  </si>
-  <si>
-    <t>11/17/2483</t>
-  </si>
-  <si>
-    <t>Pious Pikeman of the Underworld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elite Stone-hurler </t>
-  </si>
-  <si>
-    <t>7/13/2229</t>
-  </si>
-  <si>
-    <t>5/19/2511</t>
-  </si>
-  <si>
-    <t>12/4/1943</t>
-  </si>
-  <si>
-    <t>9/6/2203</t>
-  </si>
-  <si>
-    <t>2/26/1811</t>
-  </si>
-  <si>
-    <t>1/25/2157</t>
-  </si>
-  <si>
-    <t>1/18/1855</t>
-  </si>
-  <si>
-    <t>2/14/2284</t>
-  </si>
-  <si>
-    <t>7/23/1914</t>
-  </si>
-  <si>
-    <t>6/5/2290</t>
-  </si>
-  <si>
-    <t>Vicious Druid of the Isles</t>
-  </si>
-  <si>
-    <t>8/10/1818</t>
-  </si>
-  <si>
-    <t>Vile Cockatrice of the Vilains Team</t>
-  </si>
-  <si>
-    <t>6/16/2086</t>
-  </si>
-  <si>
-    <t>1/3/2309</t>
-  </si>
-  <si>
-    <t>2/14/2447</t>
-  </si>
-  <si>
-    <t>4/3/1859</t>
-  </si>
-  <si>
-    <t>12/14/1925</t>
-  </si>
-  <si>
-    <t>5/10/2106</t>
-  </si>
-  <si>
-    <t>9/29/2489</t>
-  </si>
-  <si>
-    <t>10/1/2101</t>
-  </si>
-  <si>
-    <t>9/11/2107</t>
-  </si>
-  <si>
-    <t>11/2/2029</t>
-  </si>
-  <si>
-    <t>8/16/2464</t>
-  </si>
-  <si>
-    <t>2/25/1879</t>
-  </si>
-  <si>
-    <t>12/26/2506</t>
-  </si>
-  <si>
-    <t>1/15/1998</t>
-  </si>
-  <si>
-    <t>2/6/2376</t>
-  </si>
-  <si>
-    <t>1/9/2122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile Nymph </t>
-  </si>
-  <si>
-    <t>2/16/1933</t>
-  </si>
-  <si>
-    <t>5/27/1871</t>
-  </si>
-  <si>
-    <t>1/9/2466</t>
-  </si>
-  <si>
-    <t>9/25/2240</t>
-  </si>
-  <si>
-    <t>12/13/2167</t>
-  </si>
-  <si>
-    <t>10/19/2074</t>
-  </si>
-  <si>
-    <t>Clumsy Pikeman of the Skies</t>
-  </si>
-  <si>
-    <t>11/24/2383</t>
+    <t>5592k</t>
+  </si>
+  <si>
+    <t>3/23/2302</t>
+  </si>
+  <si>
+    <t>10/24/2189</t>
+  </si>
+  <si>
+    <t>1/22/2411</t>
+  </si>
+  <si>
+    <t>8/26/2024</t>
+  </si>
+  <si>
+    <t>5/18/1861</t>
+  </si>
+  <si>
+    <t>12/5/2460</t>
+  </si>
+  <si>
+    <t>9/12/2065</t>
+  </si>
+  <si>
+    <t>10/22/1998</t>
+  </si>
+  <si>
+    <t>26469k</t>
+  </si>
+  <si>
+    <t>3398k</t>
+  </si>
+  <si>
+    <t>5/30/2119</t>
+  </si>
+  <si>
+    <t>7/5/2465</t>
+  </si>
+  <si>
+    <t>2239k</t>
+  </si>
+  <si>
+    <t>3/24/2181</t>
+  </si>
+  <si>
+    <t>8639k</t>
+  </si>
+  <si>
+    <t>3/28/2186</t>
+  </si>
+  <si>
+    <t>3/28/2243</t>
+  </si>
+  <si>
+    <t>4/13/1770</t>
+  </si>
+  <si>
+    <t>3/10/2376</t>
+  </si>
+  <si>
+    <t>3/3/2170</t>
+  </si>
+  <si>
+    <t>2/28/1962</t>
+  </si>
+  <si>
+    <t>4/5/1825</t>
+  </si>
+  <si>
+    <t>Fierce Vampire of Hell</t>
+  </si>
+  <si>
+    <t>21095k</t>
+  </si>
+  <si>
+    <t>5/16/2490</t>
+  </si>
+  <si>
+    <t>Pious Knight of Avalon</t>
+  </si>
+  <si>
+    <t>25369k</t>
+  </si>
+  <si>
+    <t>5/21/1887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noble Rider </t>
+  </si>
+  <si>
+    <t>132k</t>
+  </si>
+  <si>
+    <t>7/16/1818</t>
+  </si>
+  <si>
+    <t>10/29/1785</t>
+  </si>
+  <si>
+    <t>Vicious Vampire servant of the Horned God</t>
+  </si>
+  <si>
+    <t>1638k</t>
+  </si>
+  <si>
+    <t>9/26/2318</t>
+  </si>
+  <si>
+    <t>8/7/2209</t>
+  </si>
+  <si>
+    <t>11/8/2378</t>
+  </si>
+  <si>
+    <t>9/16/1995</t>
+  </si>
+  <si>
+    <t>4/12/2287</t>
+  </si>
+  <si>
+    <t>Swift Hobgoblin of the Land Beyond</t>
+  </si>
+  <si>
+    <t>11599k</t>
+  </si>
+  <si>
+    <t>6/30/2367</t>
+  </si>
+  <si>
+    <t>2/18/1905</t>
+  </si>
+  <si>
+    <t>7/12/1872</t>
+  </si>
+  <si>
+    <t>11/27/2264</t>
   </si>
   <si>
     <t>MADE WITH Bytescout Spreadsheet SDK 2.4.0.1447 DEMO</t>
@@ -604,4002 +859,4002 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>9460</v>
+        <v>8320</v>
       </c>
       <c r="E2">
-        <v>848</v>
-      </c>
-      <c r="F2">
-        <v>8022080</v>
+        <v>1773</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="B3">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2550</v>
+      </c>
+      <c r="E3">
+        <v>1972</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3">
-        <v>9590</v>
-      </c>
-      <c r="E3">
-        <v>1356</v>
-      </c>
-      <c r="F3">
-        <v>13004040</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="B6">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>8770</v>
+        <v>7650</v>
       </c>
       <c r="E6">
-        <v>2125</v>
-      </c>
-      <c r="F6">
-        <v>18636250</v>
+        <v>210</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="B7">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>5370</v>
+        <v>9360</v>
       </c>
       <c r="E7">
-        <v>1269</v>
-      </c>
-      <c r="F7">
-        <v>6814530</v>
+        <v>3233</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="B10">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>7980</v>
+        <v>5640</v>
       </c>
       <c r="E10">
-        <v>3267</v>
-      </c>
-      <c r="F10">
-        <v>26070660</v>
+        <v>1924</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="B11">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>1770</v>
+        <v>2010</v>
       </c>
       <c r="E11">
-        <v>1025</v>
-      </c>
-      <c r="F11">
-        <v>1814250</v>
+        <v>1644</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="B14">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>9600</v>
+        <v>1240</v>
       </c>
       <c r="E14">
-        <v>903</v>
-      </c>
-      <c r="F14">
-        <v>8668800</v>
+        <v>1515</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="B15">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>9690</v>
+        <v>5030</v>
       </c>
       <c r="E15">
-        <v>2707</v>
-      </c>
-      <c r="F15">
-        <v>26230830</v>
+        <v>1956</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="B18">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>3420</v>
+        <v>8800</v>
       </c>
       <c r="E18">
-        <v>1822</v>
-      </c>
-      <c r="F18">
-        <v>6231240</v>
+        <v>1235</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="B19">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>8770</v>
+        <v>3000</v>
       </c>
       <c r="E19">
-        <v>2125</v>
-      </c>
-      <c r="F19">
-        <v>18636250</v>
+        <v>251</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="B22">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>7190</v>
+        <v>5330</v>
       </c>
       <c r="E22">
-        <v>1988</v>
-      </c>
-      <c r="F22">
-        <v>14293720</v>
+        <v>3227</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="B23">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>3070</v>
+        <v>4740</v>
       </c>
       <c r="E23">
-        <v>3374</v>
-      </c>
-      <c r="F23">
-        <v>10358180</v>
+        <v>883</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="B26">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>3070</v>
+        <v>4270</v>
       </c>
       <c r="E26">
-        <v>3374</v>
-      </c>
-      <c r="F26">
-        <v>10358180</v>
+        <v>2032</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="B27">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>5660</v>
+        <v>6870</v>
       </c>
       <c r="E27">
-        <v>797</v>
-      </c>
-      <c r="F27">
-        <v>4511020</v>
+        <v>2997</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="B30">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D30">
-        <v>9590</v>
+        <v>7830</v>
       </c>
       <c r="E30">
-        <v>1356</v>
-      </c>
-      <c r="F30">
-        <v>13004040</v>
+        <v>2898</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="B31">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D31">
-        <v>1170</v>
+        <v>5750</v>
       </c>
       <c r="E31">
-        <v>2656</v>
-      </c>
-      <c r="F31">
-        <v>3107520</v>
+        <v>1925</v>
+      </c>
+      <c r="F31" t="s">
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="B34">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D34">
-        <v>2870</v>
+        <v>7970</v>
       </c>
       <c r="E34">
-        <v>2158</v>
-      </c>
-      <c r="F34">
-        <v>6193460</v>
+        <v>1367</v>
+      </c>
+      <c r="F34" t="s">
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="B35">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>9600</v>
+        <v>3050</v>
       </c>
       <c r="E35">
-        <v>903</v>
-      </c>
-      <c r="F35">
-        <v>8668800</v>
+        <v>876</v>
+      </c>
+      <c r="F35" t="s">
+        <v>51</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
       <c r="B38">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D38">
-        <v>1750</v>
+        <v>870</v>
       </c>
       <c r="E38">
-        <v>824</v>
-      </c>
-      <c r="F38">
-        <v>1442000</v>
+        <v>3153</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39">
       <c r="B39">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D39">
-        <v>9590</v>
+        <v>2720</v>
       </c>
       <c r="E39">
-        <v>1356</v>
-      </c>
-      <c r="F39">
-        <v>13004040</v>
+        <v>223</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42">
       <c r="B42">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>7960</v>
+        <v>3000</v>
       </c>
       <c r="E42">
-        <v>2669</v>
-      </c>
-      <c r="F42">
-        <v>21245240</v>
+        <v>251</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43">
       <c r="B43">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D43">
-        <v>2450</v>
+        <v>7140</v>
       </c>
       <c r="E43">
-        <v>2669</v>
-      </c>
-      <c r="F43">
-        <v>6539050</v>
+        <v>2842</v>
+      </c>
+      <c r="F43" t="s">
+        <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46">
       <c r="B46">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D46">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="E46">
-        <v>545</v>
-      </c>
-      <c r="F46">
-        <v>245250</v>
+        <v>1640</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47">
       <c r="B47">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D47">
-        <v>1370</v>
+        <v>870</v>
       </c>
       <c r="E47">
-        <v>313</v>
-      </c>
-      <c r="F47">
-        <v>428810</v>
+        <v>3153</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50">
       <c r="B50">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D50">
-        <v>8470</v>
+        <v>7690</v>
       </c>
       <c r="E50">
-        <v>1501</v>
-      </c>
-      <c r="F50">
-        <v>12713470</v>
+        <v>2036</v>
+      </c>
+      <c r="F50" t="s">
+        <v>64</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
       <c r="B51">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D51">
-        <v>6530</v>
+        <v>9050</v>
       </c>
       <c r="E51">
-        <v>686</v>
-      </c>
-      <c r="F51">
-        <v>4479580</v>
+        <v>1731</v>
+      </c>
+      <c r="F51" t="s">
+        <v>67</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
       <c r="B54">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D54">
-        <v>8470</v>
+        <v>7690</v>
       </c>
       <c r="E54">
-        <v>2576</v>
-      </c>
-      <c r="F54">
-        <v>21818720</v>
+        <v>2036</v>
+      </c>
+      <c r="F54" t="s">
+        <v>64</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55">
       <c r="B55">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D55">
-        <v>3170</v>
+        <v>1110</v>
       </c>
       <c r="E55">
-        <v>1378</v>
-      </c>
-      <c r="F55">
-        <v>4368260</v>
+        <v>2081</v>
+      </c>
+      <c r="F55" t="s">
+        <v>70</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58">
       <c r="B58">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D58">
-        <v>1750</v>
+        <v>3970</v>
       </c>
       <c r="E58">
-        <v>824</v>
-      </c>
-      <c r="F58">
-        <v>1442000</v>
+        <v>1967</v>
+      </c>
+      <c r="F58" t="s">
+        <v>72</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59">
       <c r="B59">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D59">
-        <v>5370</v>
+        <v>800</v>
       </c>
       <c r="E59">
-        <v>1269</v>
-      </c>
-      <c r="F59">
-        <v>6814530</v>
+        <v>1640</v>
+      </c>
+      <c r="F59" t="s">
+        <v>61</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62">
       <c r="B62">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D62">
-        <v>2870</v>
+        <v>7690</v>
       </c>
       <c r="E62">
-        <v>2158</v>
-      </c>
-      <c r="F62">
-        <v>6193460</v>
+        <v>2036</v>
+      </c>
+      <c r="F62" t="s">
+        <v>64</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63">
       <c r="B63">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <v>1900</v>
+        <v>2550</v>
       </c>
       <c r="E63">
-        <v>3423</v>
-      </c>
-      <c r="F63">
-        <v>6503700</v>
+        <v>1972</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66">
       <c r="B66">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D66">
-        <v>5980</v>
+        <v>1110</v>
       </c>
       <c r="E66">
-        <v>1863</v>
-      </c>
-      <c r="F66">
-        <v>11140740</v>
+        <v>2081</v>
+      </c>
+      <c r="F66" t="s">
+        <v>70</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="B67">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D67">
-        <v>5980</v>
+        <v>5750</v>
       </c>
       <c r="E67">
-        <v>2280</v>
-      </c>
-      <c r="F67">
-        <v>13634400</v>
+        <v>1925</v>
+      </c>
+      <c r="F67" t="s">
+        <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70">
       <c r="B70">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D70">
-        <v>1200</v>
+        <v>7580</v>
       </c>
       <c r="E70">
-        <v>3397</v>
-      </c>
-      <c r="F70">
-        <v>4076400</v>
+        <v>1295</v>
+      </c>
+      <c r="F70" t="s">
+        <v>77</v>
       </c>
       <c r="G70" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="B71">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D71">
-        <v>4250</v>
+        <v>7970</v>
       </c>
       <c r="E71">
-        <v>2412</v>
-      </c>
-      <c r="F71">
-        <v>10251000</v>
+        <v>1367</v>
+      </c>
+      <c r="F71" t="s">
+        <v>48</v>
       </c>
       <c r="G71" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="B74">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D74">
-        <v>5010</v>
+        <v>3290</v>
       </c>
       <c r="E74">
-        <v>3449</v>
-      </c>
-      <c r="F74">
-        <v>17279490</v>
+        <v>650</v>
+      </c>
+      <c r="F74" t="s">
+        <v>80</v>
       </c>
       <c r="G74" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
       <c r="B75">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D75">
-        <v>2780</v>
+        <v>3950</v>
       </c>
       <c r="E75">
-        <v>667</v>
-      </c>
-      <c r="F75">
-        <v>1854260</v>
+        <v>3242</v>
+      </c>
+      <c r="F75" t="s">
+        <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="B78">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D78">
-        <v>9670</v>
+        <v>3970</v>
       </c>
       <c r="E78">
-        <v>311</v>
-      </c>
-      <c r="F78">
-        <v>3007370</v>
+        <v>1967</v>
+      </c>
+      <c r="F78" t="s">
+        <v>72</v>
       </c>
       <c r="G78" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79">
       <c r="B79">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C79" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D79">
-        <v>210</v>
+        <v>9390</v>
       </c>
       <c r="E79">
-        <v>249</v>
-      </c>
-      <c r="F79">
-        <v>52290</v>
+        <v>251</v>
+      </c>
+      <c r="F79" t="s">
+        <v>85</v>
       </c>
       <c r="G79" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="B82">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D82">
-        <v>7640</v>
+        <v>7120</v>
       </c>
       <c r="E82">
-        <v>1899</v>
-      </c>
-      <c r="F82">
-        <v>14508360</v>
+        <v>1704</v>
+      </c>
+      <c r="F82" t="s">
+        <v>87</v>
       </c>
       <c r="G82" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83">
       <c r="B83">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D83">
-        <v>8310</v>
+        <v>4800</v>
       </c>
       <c r="E83">
-        <v>1846</v>
-      </c>
-      <c r="F83">
-        <v>15340260</v>
+        <v>490</v>
+      </c>
+      <c r="F83" t="s">
+        <v>90</v>
       </c>
       <c r="G83" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86">
       <c r="B86">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D86">
-        <v>5850</v>
+        <v>5330</v>
       </c>
       <c r="E86">
-        <v>1775</v>
-      </c>
-      <c r="F86">
-        <v>10383750</v>
+        <v>3227</v>
+      </c>
+      <c r="F86" t="s">
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87">
       <c r="B87">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D87">
-        <v>4740</v>
+        <v>3050</v>
       </c>
       <c r="E87">
-        <v>2360</v>
-      </c>
-      <c r="F87">
-        <v>11186400</v>
+        <v>876</v>
+      </c>
+      <c r="F87" t="s">
+        <v>51</v>
       </c>
       <c r="G87" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90">
       <c r="B90">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D90">
-        <v>9460</v>
+        <v>3950</v>
       </c>
       <c r="E90">
-        <v>848</v>
-      </c>
-      <c r="F90">
-        <v>8022080</v>
+        <v>3242</v>
+      </c>
+      <c r="F90" t="s">
+        <v>83</v>
       </c>
       <c r="G90" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91">
       <c r="B91">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="D91">
-        <v>7700</v>
+        <v>1920</v>
       </c>
       <c r="E91">
-        <v>3397</v>
-      </c>
-      <c r="F91">
-        <v>26156900</v>
+        <v>1907</v>
+      </c>
+      <c r="F91" t="s">
+        <v>94</v>
       </c>
       <c r="G91" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94">
       <c r="B94">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D94">
-        <v>1750</v>
+        <v>8880</v>
       </c>
       <c r="E94">
-        <v>824</v>
-      </c>
-      <c r="F94">
-        <v>1442000</v>
+        <v>2845</v>
+      </c>
+      <c r="F94" t="s">
+        <v>96</v>
       </c>
       <c r="G94" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95">
       <c r="B95">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D95">
-        <v>1500</v>
+        <v>870</v>
       </c>
       <c r="E95">
-        <v>545</v>
-      </c>
-      <c r="F95">
-        <v>817500</v>
+        <v>3153</v>
+      </c>
+      <c r="F95" t="s">
+        <v>53</v>
       </c>
       <c r="G95" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98">
       <c r="B98">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D98">
-        <v>2030</v>
+        <v>5520</v>
       </c>
       <c r="E98">
-        <v>2626</v>
-      </c>
-      <c r="F98">
-        <v>5330780</v>
+        <v>1099</v>
+      </c>
+      <c r="F98" t="s">
+        <v>99</v>
       </c>
       <c r="G98" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="B99">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D99">
-        <v>9600</v>
+        <v>9030</v>
       </c>
       <c r="E99">
-        <v>903</v>
-      </c>
-      <c r="F99">
-        <v>8668800</v>
+        <v>1640</v>
+      </c>
+      <c r="F99" t="s">
+        <v>101</v>
       </c>
       <c r="G99" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="B102">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D102">
-        <v>3490</v>
+        <v>7580</v>
       </c>
       <c r="E102">
-        <v>1863</v>
-      </c>
-      <c r="F102">
-        <v>6501870</v>
+        <v>1295</v>
+      </c>
+      <c r="F102" t="s">
+        <v>77</v>
       </c>
       <c r="G102" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="B103">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C103" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D103">
-        <v>3320</v>
+        <v>8040</v>
       </c>
       <c r="E103">
-        <v>2611</v>
-      </c>
-      <c r="F103">
-        <v>8668520</v>
+        <v>1257</v>
+      </c>
+      <c r="F103" t="s">
+        <v>104</v>
       </c>
       <c r="G103" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106">
       <c r="B106">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C106" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D106">
-        <v>1900</v>
+        <v>8260</v>
       </c>
       <c r="E106">
-        <v>3423</v>
-      </c>
-      <c r="F106">
-        <v>6503700</v>
+        <v>2997</v>
+      </c>
+      <c r="F106" t="s">
+        <v>105</v>
       </c>
       <c r="G106" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107">
       <c r="B107">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C107" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D107">
-        <v>2070</v>
+        <v>7690</v>
       </c>
       <c r="E107">
-        <v>1154</v>
-      </c>
-      <c r="F107">
-        <v>2388780</v>
+        <v>2036</v>
+      </c>
+      <c r="F107" t="s">
+        <v>64</v>
       </c>
       <c r="G107" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110">
       <c r="B110">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D110">
-        <v>5830</v>
+        <v>7990</v>
       </c>
       <c r="E110">
-        <v>2656</v>
-      </c>
-      <c r="F110">
-        <v>15484480</v>
+        <v>2710</v>
+      </c>
+      <c r="F110" t="s">
+        <v>108</v>
       </c>
       <c r="G110" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111">
       <c r="B111">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C111" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D111">
-        <v>2070</v>
+        <v>3950</v>
       </c>
       <c r="E111">
-        <v>1154</v>
-      </c>
-      <c r="F111">
-        <v>2388780</v>
+        <v>3242</v>
+      </c>
+      <c r="F111" t="s">
+        <v>83</v>
       </c>
       <c r="G111" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114">
       <c r="B114">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D114">
-        <v>1370</v>
+        <v>870</v>
       </c>
       <c r="E114">
-        <v>313</v>
-      </c>
-      <c r="F114">
-        <v>428810</v>
+        <v>3153</v>
+      </c>
+      <c r="F114" t="s">
+        <v>53</v>
       </c>
       <c r="G114" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115">
       <c r="B115">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="D115">
-        <v>5590</v>
+        <v>5060</v>
       </c>
       <c r="E115">
-        <v>903</v>
-      </c>
-      <c r="F115">
-        <v>5047770</v>
+        <v>2324</v>
+      </c>
+      <c r="F115" t="s">
+        <v>112</v>
       </c>
       <c r="G115" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118">
       <c r="B118">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C118" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D118">
-        <v>5790</v>
+        <v>7800</v>
       </c>
       <c r="E118">
-        <v>2633</v>
-      </c>
-      <c r="F118">
-        <v>15245070</v>
+        <v>2833</v>
+      </c>
+      <c r="F118" t="s">
+        <v>114</v>
       </c>
       <c r="G118" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119">
       <c r="B119">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="D119">
-        <v>9590</v>
+        <v>6760</v>
       </c>
       <c r="E119">
-        <v>1356</v>
-      </c>
-      <c r="F119">
-        <v>13004040</v>
+        <v>1319</v>
+      </c>
+      <c r="F119" t="s">
+        <v>117</v>
       </c>
       <c r="G119" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122">
       <c r="B122">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="D122">
-        <v>3420</v>
+        <v>7110</v>
       </c>
       <c r="E122">
-        <v>1822</v>
-      </c>
-      <c r="F122">
-        <v>6231240</v>
+        <v>2974</v>
+      </c>
+      <c r="F122" t="s">
+        <v>119</v>
       </c>
       <c r="G122" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
       <c r="B123">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C123" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="D123">
-        <v>4250</v>
+        <v>6460</v>
       </c>
       <c r="E123">
-        <v>2412</v>
-      </c>
-      <c r="F123">
-        <v>10251000</v>
+        <v>1999</v>
+      </c>
+      <c r="F123" t="s">
+        <v>122</v>
       </c>
       <c r="G123" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126">
       <c r="B126">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D126">
-        <v>9890</v>
+        <v>7800</v>
       </c>
       <c r="E126">
-        <v>575</v>
-      </c>
-      <c r="F126">
-        <v>5686750</v>
+        <v>2833</v>
+      </c>
+      <c r="F126" t="s">
+        <v>114</v>
       </c>
       <c r="G126" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127">
       <c r="B127">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D127">
-        <v>450</v>
+        <v>7580</v>
       </c>
       <c r="E127">
-        <v>545</v>
-      </c>
-      <c r="F127">
-        <v>245250</v>
+        <v>1295</v>
+      </c>
+      <c r="F127" t="s">
+        <v>77</v>
       </c>
       <c r="G127" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130">
       <c r="B130">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C130" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D130">
-        <v>1370</v>
+        <v>5750</v>
       </c>
       <c r="E130">
-        <v>313</v>
-      </c>
-      <c r="F130">
-        <v>428810</v>
+        <v>1925</v>
+      </c>
+      <c r="F130" t="s">
+        <v>46</v>
       </c>
       <c r="G130" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131">
       <c r="B131">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C131" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D131">
-        <v>7770</v>
+        <v>8260</v>
       </c>
       <c r="E131">
-        <v>1501</v>
-      </c>
-      <c r="F131">
-        <v>11662770</v>
+        <v>2997</v>
+      </c>
+      <c r="F131" t="s">
+        <v>105</v>
       </c>
       <c r="G131" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134">
       <c r="B134">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C134" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D134">
-        <v>8470</v>
+        <v>3340</v>
       </c>
       <c r="E134">
-        <v>2576</v>
-      </c>
-      <c r="F134">
-        <v>21818720</v>
+        <v>632</v>
+      </c>
+      <c r="F134" t="s">
+        <v>126</v>
       </c>
       <c r="G134" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135">
       <c r="B135">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D135">
-        <v>5980</v>
+        <v>9360</v>
       </c>
       <c r="E135">
-        <v>2280</v>
-      </c>
-      <c r="F135">
-        <v>13634400</v>
+        <v>3233</v>
+      </c>
+      <c r="F135" t="s">
+        <v>16</v>
       </c>
       <c r="G135" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138">
       <c r="B138">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C138" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D138">
-        <v>3000</v>
+        <v>6870</v>
       </c>
       <c r="E138">
-        <v>3088</v>
-      </c>
-      <c r="F138">
-        <v>9264000</v>
+        <v>2997</v>
+      </c>
+      <c r="F138" t="s">
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139">
       <c r="B139">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="C139" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D139">
-        <v>8470</v>
+        <v>2820</v>
       </c>
       <c r="E139">
-        <v>2576</v>
-      </c>
-      <c r="F139">
-        <v>21818720</v>
+        <v>3289</v>
+      </c>
+      <c r="F139" t="s">
+        <v>130</v>
       </c>
       <c r="G139" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142">
       <c r="B142">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D142">
-        <v>9590</v>
+        <v>3970</v>
       </c>
       <c r="E142">
-        <v>1356</v>
-      </c>
-      <c r="F142">
-        <v>13004040</v>
+        <v>1967</v>
+      </c>
+      <c r="F142" t="s">
+        <v>72</v>
       </c>
       <c r="G142" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143">
       <c r="B143">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D143">
-        <v>450</v>
+        <v>7970</v>
       </c>
       <c r="E143">
-        <v>545</v>
-      </c>
-      <c r="F143">
-        <v>245250</v>
+        <v>1367</v>
+      </c>
+      <c r="F143" t="s">
+        <v>48</v>
       </c>
       <c r="G143" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146">
       <c r="B146">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D146">
-        <v>7980</v>
+        <v>9050</v>
       </c>
       <c r="E146">
-        <v>3267</v>
-      </c>
-      <c r="F146">
-        <v>26070660</v>
+        <v>1731</v>
+      </c>
+      <c r="F146" t="s">
+        <v>67</v>
       </c>
       <c r="G146" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147">
       <c r="B147">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C147" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D147">
-        <v>7530</v>
+        <v>7580</v>
       </c>
       <c r="E147">
-        <v>2971</v>
-      </c>
-      <c r="F147">
-        <v>22371630</v>
+        <v>1295</v>
+      </c>
+      <c r="F147" t="s">
+        <v>77</v>
       </c>
       <c r="G147" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
     </row>
     <row r="150">
       <c r="B150">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C150" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D150">
-        <v>5680</v>
+        <v>8040</v>
       </c>
       <c r="E150">
-        <v>2644</v>
-      </c>
-      <c r="F150">
-        <v>15017920</v>
+        <v>1257</v>
+      </c>
+      <c r="F150" t="s">
+        <v>104</v>
       </c>
       <c r="G150" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151">
       <c r="B151">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C151" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D151">
-        <v>5120</v>
+        <v>1560</v>
       </c>
       <c r="E151">
-        <v>2440</v>
-      </c>
-      <c r="F151">
-        <v>12492800</v>
+        <v>1644</v>
+      </c>
+      <c r="F151" t="s">
+        <v>134</v>
       </c>
       <c r="G151" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154">
       <c r="B154">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C154" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D154">
-        <v>3550</v>
+        <v>3970</v>
       </c>
       <c r="E154">
-        <v>2682</v>
-      </c>
-      <c r="F154">
-        <v>9521100</v>
+        <v>1967</v>
+      </c>
+      <c r="F154" t="s">
+        <v>72</v>
       </c>
       <c r="G154" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155">
       <c r="B155">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C155" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D155">
-        <v>6570</v>
+        <v>8260</v>
       </c>
       <c r="E155">
-        <v>2942</v>
-      </c>
-      <c r="F155">
-        <v>19328940</v>
+        <v>2997</v>
+      </c>
+      <c r="F155" t="s">
+        <v>105</v>
       </c>
       <c r="G155" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158">
       <c r="B158">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C158" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D158">
-        <v>1900</v>
+        <v>9030</v>
       </c>
       <c r="E158">
-        <v>3423</v>
-      </c>
-      <c r="F158">
-        <v>6503700</v>
+        <v>1640</v>
+      </c>
+      <c r="F158" t="s">
+        <v>101</v>
       </c>
       <c r="G158" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159">
       <c r="B159">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D159">
-        <v>6210</v>
+        <v>2720</v>
       </c>
       <c r="E159">
-        <v>2125</v>
-      </c>
-      <c r="F159">
-        <v>13196250</v>
+        <v>223</v>
+      </c>
+      <c r="F159" t="s">
+        <v>56</v>
       </c>
       <c r="G159" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162">
       <c r="B162">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="D162">
-        <v>3000</v>
+        <v>270</v>
       </c>
       <c r="E162">
-        <v>3088</v>
-      </c>
-      <c r="F162">
-        <v>9264000</v>
+        <v>223</v>
+      </c>
+      <c r="F162" t="s">
+        <v>138</v>
       </c>
       <c r="G162" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163">
       <c r="B163">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C163" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D163">
-        <v>4920</v>
+        <v>9030</v>
       </c>
       <c r="E163">
-        <v>1328</v>
-      </c>
-      <c r="F163">
-        <v>6533760</v>
+        <v>1640</v>
+      </c>
+      <c r="F163" t="s">
+        <v>101</v>
       </c>
       <c r="G163" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166">
       <c r="B166">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="D166">
-        <v>4510</v>
+        <v>2540</v>
       </c>
       <c r="E166">
-        <v>1863</v>
-      </c>
-      <c r="F166">
-        <v>8402130</v>
+        <v>2200</v>
+      </c>
+      <c r="F166" t="s">
+        <v>141</v>
       </c>
       <c r="G166" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167">
       <c r="B167">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D167">
-        <v>5590</v>
+        <v>5640</v>
       </c>
       <c r="E167">
-        <v>903</v>
-      </c>
-      <c r="F167">
-        <v>5047770</v>
+        <v>1924</v>
+      </c>
+      <c r="F167" t="s">
+        <v>18</v>
       </c>
       <c r="G167" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170">
       <c r="B170">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C170" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D170">
-        <v>7980</v>
+        <v>5060</v>
       </c>
       <c r="E170">
-        <v>1775</v>
-      </c>
-      <c r="F170">
-        <v>14164500</v>
+        <v>2324</v>
+      </c>
+      <c r="F170" t="s">
+        <v>112</v>
       </c>
       <c r="G170" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171">
       <c r="B171">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C171" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D171">
-        <v>8310</v>
+        <v>3050</v>
       </c>
       <c r="E171">
-        <v>1846</v>
-      </c>
-      <c r="F171">
-        <v>15340260</v>
+        <v>876</v>
+      </c>
+      <c r="F171" t="s">
+        <v>51</v>
       </c>
       <c r="G171" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="174">
       <c r="B174">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C174" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="D174">
-        <v>3170</v>
+        <v>8450</v>
       </c>
       <c r="E174">
-        <v>1378</v>
-      </c>
-      <c r="F174">
-        <v>4368260</v>
+        <v>1019</v>
+      </c>
+      <c r="F174" t="s">
+        <v>145</v>
       </c>
       <c r="G174" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175">
       <c r="B175">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="D175">
-        <v>3320</v>
+        <v>270</v>
       </c>
       <c r="E175">
-        <v>2611</v>
-      </c>
-      <c r="F175">
-        <v>8668520</v>
+        <v>223</v>
+      </c>
+      <c r="F175" t="s">
+        <v>138</v>
       </c>
       <c r="G175" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
     </row>
     <row r="178">
       <c r="B178">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="D178">
-        <v>1770</v>
+        <v>7230</v>
       </c>
       <c r="E178">
-        <v>1025</v>
-      </c>
-      <c r="F178">
-        <v>1814250</v>
+        <v>522</v>
+      </c>
+      <c r="F178" t="s">
+        <v>148</v>
       </c>
       <c r="G178" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179">
       <c r="B179">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C179" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D179">
-        <v>6460</v>
+        <v>800</v>
       </c>
       <c r="E179">
-        <v>2360</v>
-      </c>
-      <c r="F179">
-        <v>15245600</v>
+        <v>1640</v>
+      </c>
+      <c r="F179" t="s">
+        <v>61</v>
       </c>
       <c r="G179" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
     </row>
     <row r="182">
       <c r="B182">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C182" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D182">
-        <v>5610</v>
+        <v>1560</v>
       </c>
       <c r="E182">
-        <v>2566</v>
-      </c>
-      <c r="F182">
-        <v>14395260</v>
+        <v>1644</v>
+      </c>
+      <c r="F182" t="s">
+        <v>134</v>
       </c>
       <c r="G182" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183">
       <c r="B183">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="D183">
-        <v>9460</v>
+        <v>8450</v>
       </c>
       <c r="E183">
-        <v>848</v>
-      </c>
-      <c r="F183">
-        <v>8022080</v>
+        <v>1019</v>
+      </c>
+      <c r="F183" t="s">
+        <v>145</v>
       </c>
       <c r="G183" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186">
       <c r="B186">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C186" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="D186">
-        <v>5980</v>
+        <v>8450</v>
       </c>
       <c r="E186">
-        <v>2280</v>
-      </c>
-      <c r="F186">
-        <v>13634400</v>
+        <v>1019</v>
+      </c>
+      <c r="F186" t="s">
+        <v>145</v>
       </c>
       <c r="G186" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
     </row>
     <row r="187">
       <c r="B187">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C187" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D187">
-        <v>7960</v>
+        <v>800</v>
       </c>
       <c r="E187">
-        <v>2669</v>
-      </c>
-      <c r="F187">
-        <v>21245240</v>
+        <v>1640</v>
+      </c>
+      <c r="F187" t="s">
+        <v>61</v>
       </c>
       <c r="G187" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
     </row>
     <row r="190">
       <c r="B190">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C190" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="D190">
-        <v>6210</v>
+        <v>8450</v>
       </c>
       <c r="E190">
-        <v>2125</v>
-      </c>
-      <c r="F190">
-        <v>13196250</v>
+        <v>1019</v>
+      </c>
+      <c r="F190" t="s">
+        <v>145</v>
       </c>
       <c r="G190" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191">
       <c r="B191">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C191" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D191">
-        <v>9100</v>
+        <v>7690</v>
       </c>
       <c r="E191">
-        <v>2644</v>
-      </c>
-      <c r="F191">
-        <v>24060400</v>
+        <v>2036</v>
+      </c>
+      <c r="F191" t="s">
+        <v>64</v>
       </c>
       <c r="G191" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194">
       <c r="B194">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C194" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D194">
-        <v>4740</v>
+        <v>9350</v>
       </c>
       <c r="E194">
-        <v>2360</v>
-      </c>
-      <c r="F194">
-        <v>11186400</v>
+        <v>1731</v>
+      </c>
+      <c r="F194" t="s">
+        <v>153</v>
       </c>
       <c r="G194" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
     </row>
     <row r="195">
       <c r="B195">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C195" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D195">
-        <v>8770</v>
+        <v>8260</v>
       </c>
       <c r="E195">
-        <v>2125</v>
-      </c>
-      <c r="F195">
-        <v>18636250</v>
+        <v>2997</v>
+      </c>
+      <c r="F195" t="s">
+        <v>105</v>
       </c>
       <c r="G195" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
     </row>
     <row r="198">
       <c r="B198">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="D198">
-        <v>5610</v>
+        <v>5070</v>
       </c>
       <c r="E198">
-        <v>2566</v>
-      </c>
-      <c r="F198">
-        <v>14395260</v>
+        <v>311</v>
+      </c>
+      <c r="F198" t="s">
+        <v>156</v>
       </c>
       <c r="G198" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
     </row>
     <row r="199">
       <c r="B199">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C199" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D199">
-        <v>4020</v>
+        <v>3950</v>
       </c>
       <c r="E199">
-        <v>3178</v>
-      </c>
-      <c r="F199">
-        <v>12775560</v>
+        <v>3242</v>
+      </c>
+      <c r="F199" t="s">
+        <v>83</v>
       </c>
       <c r="G199" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
     </row>
     <row r="202">
       <c r="B202">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C202" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D202">
-        <v>5790</v>
+        <v>7580</v>
       </c>
       <c r="E202">
-        <v>2633</v>
-      </c>
-      <c r="F202">
-        <v>15245070</v>
+        <v>1295</v>
+      </c>
+      <c r="F202" t="s">
+        <v>77</v>
       </c>
       <c r="G202" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
     </row>
     <row r="203">
       <c r="B203">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C203" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="D203">
-        <v>5850</v>
+        <v>2820</v>
       </c>
       <c r="E203">
-        <v>1775</v>
-      </c>
-      <c r="F203">
-        <v>10383750</v>
+        <v>3289</v>
+      </c>
+      <c r="F203" t="s">
+        <v>130</v>
       </c>
       <c r="G203" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
     </row>
     <row r="206">
       <c r="B206">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C206" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D206">
-        <v>5120</v>
+        <v>7990</v>
       </c>
       <c r="E206">
-        <v>2440</v>
-      </c>
-      <c r="F206">
-        <v>12492800</v>
+        <v>2710</v>
+      </c>
+      <c r="F206" t="s">
+        <v>108</v>
       </c>
       <c r="G206" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
     </row>
     <row r="207">
       <c r="B207">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C207" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="D207">
-        <v>1200</v>
+        <v>3220</v>
       </c>
       <c r="E207">
-        <v>3397</v>
-      </c>
-      <c r="F207">
-        <v>4076400</v>
+        <v>677</v>
+      </c>
+      <c r="F207" t="s">
+        <v>161</v>
       </c>
       <c r="G207" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
     </row>
     <row r="210">
       <c r="B210">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C210" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="D210">
-        <v>3490</v>
+        <v>8760</v>
       </c>
       <c r="E210">
-        <v>1863</v>
-      </c>
-      <c r="F210">
-        <v>6501870</v>
+        <v>3454</v>
+      </c>
+      <c r="F210" t="s">
+        <v>163</v>
       </c>
       <c r="G210" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="211">
       <c r="B211">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="D211">
-        <v>8470</v>
+        <v>5290</v>
       </c>
       <c r="E211">
-        <v>2576</v>
-      </c>
-      <c r="F211">
-        <v>21818720</v>
+        <v>3160</v>
+      </c>
+      <c r="F211" t="s">
+        <v>166</v>
       </c>
       <c r="G211" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="214">
       <c r="B214">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C214" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D214">
-        <v>7770</v>
+        <v>7970</v>
       </c>
       <c r="E214">
-        <v>1501</v>
-      </c>
-      <c r="F214">
-        <v>11662770</v>
+        <v>1367</v>
+      </c>
+      <c r="F214" t="s">
+        <v>48</v>
       </c>
       <c r="G214" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
     </row>
     <row r="215">
       <c r="B215">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C215" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="D215">
-        <v>8470</v>
+        <v>7990</v>
       </c>
       <c r="E215">
-        <v>2576</v>
-      </c>
-      <c r="F215">
-        <v>21818720</v>
+        <v>2710</v>
+      </c>
+      <c r="F215" t="s">
+        <v>108</v>
       </c>
       <c r="G215" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
     </row>
     <row r="218">
       <c r="B218">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C218" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="D218">
-        <v>3000</v>
+        <v>6240</v>
       </c>
       <c r="E218">
-        <v>3088</v>
-      </c>
-      <c r="F218">
-        <v>9264000</v>
+        <v>3284</v>
+      </c>
+      <c r="F218" t="s">
+        <v>169</v>
       </c>
       <c r="G218" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
     </row>
     <row r="219">
       <c r="B219">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C219" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D219">
-        <v>5660</v>
+        <v>5060</v>
       </c>
       <c r="E219">
-        <v>797</v>
-      </c>
-      <c r="F219">
-        <v>4511020</v>
+        <v>2324</v>
+      </c>
+      <c r="F219" t="s">
+        <v>112</v>
       </c>
       <c r="G219" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
     </row>
     <row r="222">
       <c r="B222">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C222" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D222">
-        <v>6530</v>
+        <v>9030</v>
       </c>
       <c r="E222">
-        <v>686</v>
-      </c>
-      <c r="F222">
-        <v>4479580</v>
+        <v>1640</v>
+      </c>
+      <c r="F222" t="s">
+        <v>101</v>
       </c>
       <c r="G222" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
     </row>
     <row r="223">
       <c r="B223">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C223" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="D223">
-        <v>1770</v>
+        <v>3740</v>
       </c>
       <c r="E223">
-        <v>1025</v>
-      </c>
-      <c r="F223">
-        <v>1814250</v>
+        <v>489</v>
+      </c>
+      <c r="F223" t="s">
+        <v>173</v>
       </c>
       <c r="G223" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
     </row>
     <row r="226">
       <c r="B226">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C226" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="D226">
-        <v>8540</v>
+        <v>1610</v>
       </c>
       <c r="E226">
-        <v>284</v>
-      </c>
-      <c r="F226">
-        <v>2425360</v>
+        <v>3466</v>
+      </c>
+      <c r="F226" t="s">
+        <v>175</v>
       </c>
       <c r="G226" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
     </row>
     <row r="227">
       <c r="B227">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C227" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D227">
-        <v>3170</v>
+        <v>3340</v>
       </c>
       <c r="E227">
-        <v>1378</v>
-      </c>
-      <c r="F227">
-        <v>4368260</v>
+        <v>632</v>
+      </c>
+      <c r="F227" t="s">
+        <v>126</v>
       </c>
       <c r="G227" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
     </row>
     <row r="230">
       <c r="B230">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="C230" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="D230">
-        <v>8540</v>
+        <v>9360</v>
       </c>
       <c r="E230">
-        <v>284</v>
-      </c>
-      <c r="F230">
-        <v>2425360</v>
+        <v>3233</v>
+      </c>
+      <c r="F230" t="s">
+        <v>16</v>
       </c>
       <c r="G230" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
     </row>
     <row r="231">
       <c r="B231">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C231" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="D231">
-        <v>5850</v>
+        <v>6460</v>
       </c>
       <c r="E231">
-        <v>1775</v>
-      </c>
-      <c r="F231">
-        <v>10383750</v>
+        <v>1999</v>
+      </c>
+      <c r="F231" t="s">
+        <v>122</v>
       </c>
       <c r="G231" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
     </row>
     <row r="234">
       <c r="B234">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C234" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="D234">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="E234">
-        <v>3088</v>
-      </c>
-      <c r="F234">
-        <v>9264000</v>
+        <v>1099</v>
+      </c>
+      <c r="F234" t="s">
+        <v>179</v>
       </c>
       <c r="G234" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
     </row>
     <row r="235">
       <c r="B235">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C235" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="D235">
-        <v>1980</v>
+        <v>2550</v>
       </c>
       <c r="E235">
-        <v>3095</v>
-      </c>
-      <c r="F235">
-        <v>6128100</v>
+        <v>1972</v>
+      </c>
+      <c r="F235" t="s">
+        <v>11</v>
       </c>
       <c r="G235" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
     </row>
     <row r="238">
       <c r="B238">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C238" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D238">
-        <v>5370</v>
+        <v>9050</v>
       </c>
       <c r="E238">
-        <v>1269</v>
-      </c>
-      <c r="F238">
-        <v>6814530</v>
+        <v>1731</v>
+      </c>
+      <c r="F238" t="s">
+        <v>67</v>
       </c>
       <c r="G238" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
     </row>
     <row r="239">
       <c r="B239">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C239" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="D239">
-        <v>9690</v>
+        <v>5410</v>
       </c>
       <c r="E239">
-        <v>2707</v>
-      </c>
-      <c r="F239">
-        <v>26230830</v>
+        <v>3365</v>
+      </c>
+      <c r="F239" t="s">
+        <v>183</v>
       </c>
       <c r="G239" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
     </row>
     <row r="242">
       <c r="B242">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C242" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D242">
-        <v>5120</v>
+        <v>5590</v>
       </c>
       <c r="E242">
-        <v>2440</v>
-      </c>
-      <c r="F242">
-        <v>12492800</v>
+        <v>1907</v>
+      </c>
+      <c r="F242" t="s">
+        <v>184</v>
       </c>
       <c r="G242" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
     </row>
     <row r="243">
       <c r="B243">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C243" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="D243">
-        <v>7190</v>
+        <v>1800</v>
       </c>
       <c r="E243">
-        <v>1988</v>
-      </c>
-      <c r="F243">
-        <v>14293720</v>
+        <v>2364</v>
+      </c>
+      <c r="F243" t="s">
+        <v>187</v>
       </c>
       <c r="G243" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
     </row>
     <row r="246">
       <c r="B246">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C246" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="D246">
-        <v>5660</v>
+        <v>1900</v>
       </c>
       <c r="E246">
-        <v>797</v>
-      </c>
-      <c r="F246">
-        <v>4511020</v>
+        <v>1099</v>
+      </c>
+      <c r="F246" t="s">
+        <v>179</v>
       </c>
       <c r="G246" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
     </row>
     <row r="247">
       <c r="B247">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D247">
-        <v>7190</v>
+        <v>3970</v>
       </c>
       <c r="E247">
-        <v>1988</v>
-      </c>
-      <c r="F247">
-        <v>14293720</v>
+        <v>1967</v>
+      </c>
+      <c r="F247" t="s">
+        <v>72</v>
       </c>
       <c r="G247" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
     </row>
     <row r="250">
       <c r="B250">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D250">
-        <v>6830</v>
+        <v>8880</v>
       </c>
       <c r="E250">
-        <v>1025</v>
-      </c>
-      <c r="F250">
-        <v>7000750</v>
+        <v>2845</v>
+      </c>
+      <c r="F250" t="s">
+        <v>96</v>
       </c>
       <c r="G250" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
     </row>
     <row r="251">
       <c r="B251">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C251" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="D251">
-        <v>4920</v>
+        <v>9430</v>
       </c>
       <c r="E251">
-        <v>1328</v>
-      </c>
-      <c r="F251">
-        <v>6533760</v>
+        <v>1515</v>
+      </c>
+      <c r="F251" t="s">
+        <v>190</v>
       </c>
       <c r="G251" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
     </row>
     <row r="254">
       <c r="B254">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C254" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="D254">
-        <v>5980</v>
+        <v>7110</v>
       </c>
       <c r="E254">
-        <v>2280</v>
-      </c>
-      <c r="F254">
-        <v>13634400</v>
+        <v>2974</v>
+      </c>
+      <c r="F254" t="s">
+        <v>119</v>
       </c>
       <c r="G254" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
     </row>
     <row r="255">
       <c r="B255">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="D255">
-        <v>5610</v>
+        <v>7140</v>
       </c>
       <c r="E255">
-        <v>2566</v>
-      </c>
-      <c r="F255">
-        <v>14395260</v>
+        <v>2842</v>
+      </c>
+      <c r="F255" t="s">
+        <v>59</v>
       </c>
       <c r="G255" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
     </row>
     <row r="258">
       <c r="B258">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C258" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="D258">
-        <v>350</v>
+        <v>6230</v>
       </c>
       <c r="E258">
-        <v>667</v>
-      </c>
-      <c r="F258">
-        <v>233450</v>
+        <v>1297</v>
+      </c>
+      <c r="F258" t="s">
+        <v>193</v>
       </c>
       <c r="G258" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
     </row>
     <row r="259">
       <c r="B259">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C259" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="D259">
-        <v>1040</v>
+        <v>2750</v>
       </c>
       <c r="E259">
-        <v>794</v>
-      </c>
-      <c r="F259">
-        <v>825760</v>
+        <v>1658</v>
+      </c>
+      <c r="F259" t="s">
+        <v>196</v>
       </c>
       <c r="G259" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
     </row>
     <row r="262">
       <c r="B262">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C262" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="D262">
-        <v>6050</v>
+        <v>9670</v>
       </c>
       <c r="E262">
-        <v>848</v>
-      </c>
-      <c r="F262">
-        <v>5130400</v>
+        <v>507</v>
+      </c>
+      <c r="F262" t="s">
+        <v>198</v>
       </c>
       <c r="G262" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
     </row>
     <row r="263">
       <c r="B263">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C263" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="D263">
-        <v>7000</v>
+        <v>4960</v>
       </c>
       <c r="E263">
-        <v>1852</v>
-      </c>
-      <c r="F263">
-        <v>12964000</v>
+        <v>1704</v>
+      </c>
+      <c r="F263" t="s">
+        <v>200</v>
       </c>
       <c r="G263" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
     </row>
     <row r="266">
       <c r="B266">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C266" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="D266">
-        <v>5040</v>
+        <v>8760</v>
       </c>
       <c r="E266">
-        <v>1108</v>
-      </c>
-      <c r="F266">
-        <v>5584320</v>
+        <v>3454</v>
+      </c>
+      <c r="F266" t="s">
+        <v>163</v>
       </c>
       <c r="G266" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
     </row>
     <row r="267">
       <c r="B267">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C267" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="D267">
-        <v>1980</v>
+        <v>7580</v>
       </c>
       <c r="E267">
-        <v>3095</v>
-      </c>
-      <c r="F267">
-        <v>6128100</v>
+        <v>1295</v>
+      </c>
+      <c r="F267" t="s">
+        <v>77</v>
       </c>
       <c r="G267" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
     </row>
     <row r="270">
       <c r="B270">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C270" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D270">
-        <v>9670</v>
+        <v>3950</v>
       </c>
       <c r="E270">
-        <v>311</v>
-      </c>
-      <c r="F270">
-        <v>3007370</v>
+        <v>3242</v>
+      </c>
+      <c r="F270" t="s">
+        <v>83</v>
       </c>
       <c r="G270" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
     </row>
     <row r="271">
       <c r="B271">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C271" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D271">
-        <v>9460</v>
+        <v>9430</v>
       </c>
       <c r="E271">
-        <v>848</v>
-      </c>
-      <c r="F271">
-        <v>8022080</v>
+        <v>1515</v>
+      </c>
+      <c r="F271" t="s">
+        <v>190</v>
       </c>
       <c r="G271" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
     </row>
     <row r="274">
       <c r="B274">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C274" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="D274">
-        <v>8470</v>
+        <v>7990</v>
       </c>
       <c r="E274">
-        <v>2576</v>
-      </c>
-      <c r="F274">
-        <v>21818720</v>
+        <v>2710</v>
+      </c>
+      <c r="F274" t="s">
+        <v>108</v>
       </c>
       <c r="G274" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="275">
       <c r="B275">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D275">
-        <v>8540</v>
+        <v>6760</v>
       </c>
       <c r="E275">
-        <v>284</v>
-      </c>
-      <c r="F275">
-        <v>2425360</v>
+        <v>1319</v>
+      </c>
+      <c r="F275" t="s">
+        <v>117</v>
       </c>
       <c r="G275" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="278">
       <c r="B278">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C278" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="D278">
-        <v>6210</v>
+        <v>7310</v>
       </c>
       <c r="E278">
-        <v>2125</v>
-      </c>
-      <c r="F278">
-        <v>13196250</v>
+        <v>765</v>
+      </c>
+      <c r="F278" t="s">
+        <v>205</v>
       </c>
       <c r="G278" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
     </row>
     <row r="279">
       <c r="B279">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C279" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D279">
-        <v>450</v>
+        <v>870</v>
       </c>
       <c r="E279">
-        <v>545</v>
-      </c>
-      <c r="F279">
-        <v>245250</v>
+        <v>3153</v>
+      </c>
+      <c r="F279" t="s">
+        <v>53</v>
       </c>
       <c r="G279" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
     </row>
     <row r="282">
       <c r="B282">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C282" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D282">
-        <v>8470</v>
+        <v>5590</v>
       </c>
       <c r="E282">
-        <v>2576</v>
-      </c>
-      <c r="F282">
-        <v>21818720</v>
+        <v>1907</v>
+      </c>
+      <c r="F282" t="s">
+        <v>184</v>
       </c>
       <c r="G282" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
     </row>
     <row r="283">
       <c r="B283">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C283" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D283">
-        <v>8470</v>
+        <v>7690</v>
       </c>
       <c r="E283">
-        <v>1501</v>
-      </c>
-      <c r="F283">
-        <v>12713470</v>
+        <v>2036</v>
+      </c>
+      <c r="F283" t="s">
+        <v>64</v>
       </c>
       <c r="G283" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
     </row>
     <row r="286">
       <c r="B286">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C286" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D286">
-        <v>7770</v>
+        <v>5520</v>
       </c>
       <c r="E286">
-        <v>1501</v>
-      </c>
-      <c r="F286">
-        <v>11662770</v>
+        <v>1099</v>
+      </c>
+      <c r="F286" t="s">
+        <v>99</v>
       </c>
       <c r="G286" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
     </row>
     <row r="287">
       <c r="B287">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C287" t="s">
         <v>63</v>
       </c>
       <c r="D287">
-        <v>4740</v>
+        <v>7690</v>
       </c>
       <c r="E287">
-        <v>2360</v>
-      </c>
-      <c r="F287">
-        <v>11186400</v>
+        <v>2036</v>
+      </c>
+      <c r="F287" t="s">
+        <v>64</v>
       </c>
       <c r="G287" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
     </row>
     <row r="290">
       <c r="B290">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C290" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D290">
-        <v>1200</v>
+        <v>8320</v>
       </c>
       <c r="E290">
-        <v>3397</v>
-      </c>
-      <c r="F290">
-        <v>4076400</v>
+        <v>1773</v>
+      </c>
+      <c r="F290" t="s">
+        <v>8</v>
       </c>
       <c r="G290" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
     </row>
     <row r="291">
       <c r="B291">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C291" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D291">
-        <v>6570</v>
+        <v>3950</v>
       </c>
       <c r="E291">
-        <v>2942</v>
-      </c>
-      <c r="F291">
-        <v>19328940</v>
+        <v>3242</v>
+      </c>
+      <c r="F291" t="s">
+        <v>83</v>
       </c>
       <c r="G291" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
     </row>
     <row r="294">
       <c r="B294">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C294" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="D294">
-        <v>8770</v>
+        <v>5060</v>
       </c>
       <c r="E294">
-        <v>2125</v>
-      </c>
-      <c r="F294">
-        <v>18636250</v>
+        <v>2324</v>
+      </c>
+      <c r="F294" t="s">
+        <v>112</v>
       </c>
       <c r="G294" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
     </row>
     <row r="295">
       <c r="B295">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C295" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D295">
-        <v>5790</v>
+        <v>5520</v>
       </c>
       <c r="E295">
-        <v>2633</v>
-      </c>
-      <c r="F295">
-        <v>15245070</v>
+        <v>1099</v>
+      </c>
+      <c r="F295" t="s">
+        <v>99</v>
       </c>
       <c r="G295" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
     </row>
     <row r="298">
       <c r="B298">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C298" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D298">
-        <v>7980</v>
+        <v>9350</v>
       </c>
       <c r="E298">
-        <v>1775</v>
-      </c>
-      <c r="F298">
-        <v>14164500</v>
+        <v>1731</v>
+      </c>
+      <c r="F298" t="s">
+        <v>153</v>
       </c>
       <c r="G298" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
     </row>
     <row r="299">
       <c r="B299">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="D299">
-        <v>4250</v>
+        <v>270</v>
       </c>
       <c r="E299">
-        <v>2412</v>
-      </c>
-      <c r="F299">
-        <v>10251000</v>
+        <v>223</v>
+      </c>
+      <c r="F299" t="s">
+        <v>138</v>
       </c>
       <c r="G299" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
     </row>
     <row r="302">
       <c r="B302">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C302" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D302">
-        <v>7960</v>
+        <v>1920</v>
       </c>
       <c r="E302">
-        <v>2669</v>
-      </c>
-      <c r="F302">
-        <v>21245240</v>
+        <v>1907</v>
+      </c>
+      <c r="F302" t="s">
+        <v>94</v>
       </c>
       <c r="G302" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
     </row>
     <row r="303">
       <c r="B303">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C303" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D303">
-        <v>4290</v>
+        <v>5520</v>
       </c>
       <c r="E303">
-        <v>2633</v>
-      </c>
-      <c r="F303">
-        <v>11295570</v>
+        <v>1099</v>
+      </c>
+      <c r="F303" t="s">
+        <v>99</v>
       </c>
       <c r="G303" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
     </row>
     <row r="306">
       <c r="B306">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C306" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="D306">
-        <v>5260</v>
+        <v>8760</v>
       </c>
       <c r="E306">
-        <v>2551</v>
-      </c>
-      <c r="F306">
-        <v>13418260</v>
+        <v>3454</v>
+      </c>
+      <c r="F306" t="s">
+        <v>163</v>
       </c>
       <c r="G306" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="307">
       <c r="B307">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C307" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D307">
-        <v>2380</v>
+        <v>8060</v>
       </c>
       <c r="E307">
-        <v>480</v>
-      </c>
-      <c r="F307">
-        <v>1142400</v>
+        <v>3284</v>
+      </c>
+      <c r="F307" t="s">
+        <v>214</v>
       </c>
       <c r="G307" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="310">
       <c r="B310">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C310" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="D310">
-        <v>210</v>
+        <v>2620</v>
       </c>
       <c r="E310">
-        <v>249</v>
-      </c>
-      <c r="F310">
-        <v>52290</v>
+        <v>1297</v>
+      </c>
+      <c r="F310" t="s">
+        <v>215</v>
       </c>
       <c r="G310" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
     </row>
     <row r="311">
       <c r="B311">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C311" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D311">
-        <v>4250</v>
+        <v>800</v>
       </c>
       <c r="E311">
-        <v>2412</v>
-      </c>
-      <c r="F311">
-        <v>10251000</v>
+        <v>1640</v>
+      </c>
+      <c r="F311" t="s">
+        <v>61</v>
       </c>
       <c r="G311" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
     </row>
     <row r="314">
       <c r="B314">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C314" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D314">
-        <v>8770</v>
+        <v>7580</v>
       </c>
       <c r="E314">
-        <v>2125</v>
-      </c>
-      <c r="F314">
-        <v>18636250</v>
+        <v>1295</v>
+      </c>
+      <c r="F314" t="s">
+        <v>77</v>
       </c>
       <c r="G314" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
     </row>
     <row r="315">
       <c r="B315">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C315" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="D315">
-        <v>5980</v>
+        <v>4290</v>
       </c>
       <c r="E315">
-        <v>1863</v>
-      </c>
-      <c r="F315">
-        <v>11140740</v>
+        <v>522</v>
+      </c>
+      <c r="F315" t="s">
+        <v>218</v>
       </c>
       <c r="G315" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
     </row>
     <row r="318">
       <c r="B318">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C318" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="D318">
-        <v>5040</v>
+        <v>5520</v>
       </c>
       <c r="E318">
-        <v>1108</v>
-      </c>
-      <c r="F318">
-        <v>5584320</v>
+        <v>1099</v>
+      </c>
+      <c r="F318" t="s">
+        <v>99</v>
       </c>
       <c r="G318" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
     </row>
     <row r="319">
       <c r="B319">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C319" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D319">
-        <v>5660</v>
+        <v>9430</v>
       </c>
       <c r="E319">
-        <v>797</v>
-      </c>
-      <c r="F319">
-        <v>4511020</v>
+        <v>1515</v>
+      </c>
+      <c r="F319" t="s">
+        <v>190</v>
       </c>
       <c r="G319" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
     </row>
     <row r="322">
       <c r="B322">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C322" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="D322">
-        <v>1980</v>
+        <v>2740</v>
       </c>
       <c r="E322">
-        <v>3095</v>
-      </c>
-      <c r="F322">
-        <v>6128100</v>
+        <v>3153</v>
+      </c>
+      <c r="F322" t="s">
+        <v>220</v>
       </c>
       <c r="G322" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
     </row>
     <row r="323">
       <c r="B323">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C323" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D323">
-        <v>5010</v>
+        <v>9360</v>
       </c>
       <c r="E323">
-        <v>3449</v>
-      </c>
-      <c r="F323">
-        <v>17279490</v>
+        <v>3233</v>
+      </c>
+      <c r="F323" t="s">
+        <v>16</v>
       </c>
       <c r="G323" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
     </row>
     <row r="326">
       <c r="B326">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C326" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="D326">
-        <v>1980</v>
+        <v>2750</v>
       </c>
       <c r="E326">
-        <v>3095</v>
-      </c>
-      <c r="F326">
-        <v>6128100</v>
+        <v>1658</v>
+      </c>
+      <c r="F326" t="s">
+        <v>196</v>
       </c>
       <c r="G326" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
     </row>
     <row r="327">
       <c r="B327">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C327" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="D327">
-        <v>9590</v>
+        <v>6240</v>
       </c>
       <c r="E327">
-        <v>1356</v>
-      </c>
-      <c r="F327">
-        <v>13004040</v>
+        <v>3284</v>
+      </c>
+      <c r="F327" t="s">
+        <v>169</v>
       </c>
       <c r="G327" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
     </row>
     <row r="330">
       <c r="B330">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C330" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="D330">
-        <v>1750</v>
+        <v>7800</v>
       </c>
       <c r="E330">
-        <v>824</v>
-      </c>
-      <c r="F330">
-        <v>1442000</v>
+        <v>2833</v>
+      </c>
+      <c r="F330" t="s">
+        <v>114</v>
       </c>
       <c r="G330" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
     </row>
     <row r="331">
       <c r="B331">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C331" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D331">
-        <v>3000</v>
+        <v>5520</v>
       </c>
       <c r="E331">
-        <v>3088</v>
-      </c>
-      <c r="F331">
-        <v>9264000</v>
+        <v>1099</v>
+      </c>
+      <c r="F331" t="s">
+        <v>99</v>
       </c>
       <c r="G331" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
     </row>
     <row r="334">
       <c r="B334">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C334" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="D334">
-        <v>5850</v>
+        <v>6230</v>
       </c>
       <c r="E334">
-        <v>1775</v>
-      </c>
-      <c r="F334">
-        <v>10383750</v>
+        <v>1297</v>
+      </c>
+      <c r="F334" t="s">
+        <v>193</v>
       </c>
       <c r="G334" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
     </row>
     <row r="335">
       <c r="B335">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C335" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="D335">
-        <v>3420</v>
+        <v>5060</v>
       </c>
       <c r="E335">
-        <v>1822</v>
-      </c>
-      <c r="F335">
-        <v>6231240</v>
+        <v>2324</v>
+      </c>
+      <c r="F335" t="s">
+        <v>112</v>
       </c>
       <c r="G335" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
     </row>
     <row r="338">
       <c r="B338">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C338" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D338">
-        <v>5830</v>
+        <v>9030</v>
       </c>
       <c r="E338">
-        <v>2656</v>
-      </c>
-      <c r="F338">
-        <v>15484480</v>
+        <v>1640</v>
+      </c>
+      <c r="F338" t="s">
+        <v>101</v>
       </c>
       <c r="G338" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
     </row>
     <row r="339">
       <c r="B339">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C339" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="D339">
-        <v>9460</v>
+        <v>9670</v>
       </c>
       <c r="E339">
-        <v>848</v>
-      </c>
-      <c r="F339">
-        <v>8022080</v>
+        <v>507</v>
+      </c>
+      <c r="F339" t="s">
+        <v>198</v>
       </c>
       <c r="G339" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
     </row>
     <row r="342">
       <c r="B342">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C342" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="D342">
-        <v>350</v>
+        <v>3340</v>
       </c>
       <c r="E342">
-        <v>667</v>
-      </c>
-      <c r="F342">
-        <v>233450</v>
+        <v>632</v>
+      </c>
+      <c r="F342" t="s">
+        <v>126</v>
       </c>
       <c r="G342" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
     </row>
     <row r="343">
       <c r="B343">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C343" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D343">
-        <v>5850</v>
+        <v>4800</v>
       </c>
       <c r="E343">
-        <v>1775</v>
-      </c>
-      <c r="F343">
-        <v>10383750</v>
+        <v>490</v>
+      </c>
+      <c r="F343" t="s">
+        <v>90</v>
       </c>
       <c r="G343" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
     </row>
     <row r="346">
       <c r="B346">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C346" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="D346">
-        <v>450</v>
+        <v>8040</v>
       </c>
       <c r="E346">
-        <v>545</v>
-      </c>
-      <c r="F346">
-        <v>245250</v>
+        <v>1257</v>
+      </c>
+      <c r="F346" t="s">
+        <v>104</v>
       </c>
       <c r="G346" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
     </row>
     <row r="347">
       <c r="B347">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C347" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="D347">
-        <v>1170</v>
+        <v>9140</v>
       </c>
       <c r="E347">
-        <v>2656</v>
-      </c>
-      <c r="F347">
-        <v>3107520</v>
+        <v>2308</v>
+      </c>
+      <c r="F347" t="s">
+        <v>229</v>
       </c>
       <c r="G347" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
     </row>
     <row r="350">
       <c r="B350">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C350" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D350">
-        <v>5980</v>
+        <v>5750</v>
       </c>
       <c r="E350">
-        <v>2280</v>
-      </c>
-      <c r="F350">
-        <v>13634400</v>
+        <v>1925</v>
+      </c>
+      <c r="F350" t="s">
+        <v>46</v>
       </c>
       <c r="G350" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
     </row>
     <row r="351">
       <c r="B351">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C351" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D351">
-        <v>4290</v>
+        <v>1240</v>
       </c>
       <c r="E351">
-        <v>2633</v>
-      </c>
-      <c r="F351">
-        <v>11295570</v>
+        <v>1515</v>
+      </c>
+      <c r="F351" t="s">
+        <v>23</v>
       </c>
       <c r="G351" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
     </row>
     <row r="354">
       <c r="B354">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C354" t="s">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="D354">
-        <v>8470</v>
+        <v>7770</v>
       </c>
       <c r="E354">
-        <v>2576</v>
-      </c>
-      <c r="F354">
-        <v>21818720</v>
+        <v>3265</v>
+      </c>
+      <c r="F354" t="s">
+        <v>232</v>
       </c>
       <c r="G354" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
     </row>
     <row r="355">
       <c r="B355">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C355" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="D355">
-        <v>1900</v>
+        <v>240</v>
       </c>
       <c r="E355">
-        <v>3423</v>
-      </c>
-      <c r="F355">
-        <v>6503700</v>
+        <v>552</v>
+      </c>
+      <c r="F355" t="s">
+        <v>235</v>
       </c>
       <c r="G355" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
     </row>
     <row r="358">
       <c r="B358">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="C358" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="D358">
-        <v>5680</v>
+        <v>9670</v>
       </c>
       <c r="E358">
-        <v>2644</v>
-      </c>
-      <c r="F358">
-        <v>15017920</v>
+        <v>507</v>
+      </c>
+      <c r="F358" t="s">
+        <v>198</v>
       </c>
       <c r="G358" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
     </row>
     <row r="359">
       <c r="B359">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C359" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="D359">
-        <v>9690</v>
+        <v>270</v>
       </c>
       <c r="E359">
-        <v>2707</v>
-      </c>
-      <c r="F359">
-        <v>26230830</v>
+        <v>223</v>
+      </c>
+      <c r="F359" t="s">
+        <v>138</v>
       </c>
       <c r="G359" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
     </row>
     <row r="362">
       <c r="B362">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C362" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D362">
-        <v>2070</v>
+        <v>3950</v>
       </c>
       <c r="E362">
-        <v>1154</v>
-      </c>
-      <c r="F362">
-        <v>2388780</v>
+        <v>3242</v>
+      </c>
+      <c r="F362" t="s">
+        <v>83</v>
       </c>
       <c r="G362" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
     </row>
     <row r="363">
       <c r="B363">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C363" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="D363">
-        <v>6530</v>
+        <v>5290</v>
       </c>
       <c r="E363">
-        <v>686</v>
-      </c>
-      <c r="F363">
-        <v>4479580</v>
+        <v>3160</v>
+      </c>
+      <c r="F363" t="s">
+        <v>166</v>
       </c>
       <c r="G363" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
     </row>
     <row r="366">
       <c r="B366">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C366" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="D366">
-        <v>6210</v>
+        <v>5480</v>
       </c>
       <c r="E366">
-        <v>2125</v>
-      </c>
-      <c r="F366">
-        <v>13196250</v>
+        <v>299</v>
+      </c>
+      <c r="F366" t="s">
+        <v>239</v>
       </c>
       <c r="G366" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
     </row>
     <row r="367">
       <c r="B367">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C367" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="D367">
-        <v>7000</v>
+        <v>2620</v>
       </c>
       <c r="E367">
-        <v>1852</v>
-      </c>
-      <c r="F367">
-        <v>12964000</v>
+        <v>1297</v>
+      </c>
+      <c r="F367" t="s">
+        <v>215</v>
       </c>
       <c r="G367" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
     </row>
     <row r="370">
       <c r="B370">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C370" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="D370">
-        <v>8470</v>
+        <v>1900</v>
       </c>
       <c r="E370">
-        <v>2576</v>
-      </c>
-      <c r="F370">
-        <v>21818720</v>
+        <v>1099</v>
+      </c>
+      <c r="F370" t="s">
+        <v>179</v>
       </c>
       <c r="G370" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
     </row>
     <row r="371">
       <c r="B371">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C371" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="D371">
-        <v>5120</v>
+        <v>7230</v>
       </c>
       <c r="E371">
-        <v>2440</v>
-      </c>
-      <c r="F371">
-        <v>12492800</v>
+        <v>522</v>
+      </c>
+      <c r="F371" t="s">
+        <v>148</v>
       </c>
       <c r="G371" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
     </row>
     <row r="374">
       <c r="B374">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C374" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="D374">
-        <v>670</v>
+        <v>7800</v>
       </c>
       <c r="E374">
-        <v>1620</v>
-      </c>
-      <c r="F374">
-        <v>1085400</v>
+        <v>2833</v>
+      </c>
+      <c r="F374" t="s">
+        <v>114</v>
       </c>
       <c r="G374" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
     </row>
     <row r="375">
       <c r="B375">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C375" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D375">
-        <v>7640</v>
+        <v>9430</v>
       </c>
       <c r="E375">
-        <v>1899</v>
-      </c>
-      <c r="F375">
-        <v>14508360</v>
+        <v>1515</v>
+      </c>
+      <c r="F375" t="s">
+        <v>190</v>
       </c>
       <c r="G375" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
     </row>
     <row r="378">
       <c r="B378">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C378" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="D378">
-        <v>6050</v>
+        <v>6760</v>
       </c>
       <c r="E378">
-        <v>848</v>
-      </c>
-      <c r="F378">
-        <v>5130400</v>
+        <v>1319</v>
+      </c>
+      <c r="F378" t="s">
+        <v>117</v>
       </c>
       <c r="G378" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
     </row>
     <row r="379">
       <c r="B379">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C379" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="D379">
-        <v>350</v>
+        <v>3340</v>
       </c>
       <c r="E379">
-        <v>667</v>
-      </c>
-      <c r="F379">
-        <v>233450</v>
+        <v>632</v>
+      </c>
+      <c r="F379" t="s">
+        <v>126</v>
       </c>
       <c r="G379" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
     </row>
     <row r="382">
       <c r="B382">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C382" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D382">
-        <v>7960</v>
+        <v>1560</v>
       </c>
       <c r="E382">
-        <v>2669</v>
-      </c>
-      <c r="F382">
-        <v>21245240</v>
+        <v>1644</v>
+      </c>
+      <c r="F382" t="s">
+        <v>134</v>
       </c>
       <c r="G382" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
     </row>
     <row r="383">
       <c r="B383">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C383" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D383">
-        <v>4510</v>
+        <v>9430</v>
       </c>
       <c r="E383">
-        <v>1863</v>
-      </c>
-      <c r="F383">
-        <v>8402130</v>
+        <v>1515</v>
+      </c>
+      <c r="F383" t="s">
+        <v>190</v>
       </c>
       <c r="G383" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
     </row>
     <row r="386">
       <c r="B386">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C386" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="D386">
-        <v>7700</v>
+        <v>4540</v>
       </c>
       <c r="E386">
-        <v>3397</v>
-      </c>
-      <c r="F386">
-        <v>26156900</v>
+        <v>2555</v>
+      </c>
+      <c r="F386" t="s">
+        <v>246</v>
       </c>
       <c r="G386" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
     </row>
     <row r="387">
       <c r="B387">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C387" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D387">
-        <v>6530</v>
+        <v>8800</v>
       </c>
       <c r="E387">
-        <v>686</v>
-      </c>
-      <c r="F387">
-        <v>4479580</v>
+        <v>1235</v>
+      </c>
+      <c r="F387" t="s">
+        <v>28</v>
       </c>
       <c r="G387" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
     </row>
     <row r="390">
       <c r="B390">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C390" t="s">
         <v>95</v>
       </c>
       <c r="D390">
-        <v>4920</v>
+        <v>8880</v>
       </c>
       <c r="E390">
-        <v>1328</v>
-      </c>
-      <c r="F390">
-        <v>6533760</v>
+        <v>2845</v>
+      </c>
+      <c r="F390" t="s">
+        <v>96</v>
       </c>
       <c r="G390" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
     </row>
     <row r="391">
       <c r="B391">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C391" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="D391">
-        <v>5040</v>
+        <v>1240</v>
       </c>
       <c r="E391">
-        <v>1108</v>
-      </c>
-      <c r="F391">
-        <v>5584320</v>
+        <v>1515</v>
+      </c>
+      <c r="F391" t="s">
+        <v>23</v>
       </c>
       <c r="G391" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
     </row>
     <row r="394">
       <c r="B394">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C394" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D394">
-        <v>7960</v>
+        <v>5030</v>
       </c>
       <c r="E394">
-        <v>2669</v>
-      </c>
-      <c r="F394">
-        <v>21245240</v>
+        <v>1956</v>
+      </c>
+      <c r="F394" t="s">
+        <v>26</v>
       </c>
       <c r="G394" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
     </row>
     <row r="395">
       <c r="B395">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C395" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="D395">
-        <v>5850</v>
+        <v>8320</v>
       </c>
       <c r="E395">
-        <v>407</v>
-      </c>
-      <c r="F395">
-        <v>2380950</v>
+        <v>1773</v>
+      </c>
+      <c r="F395" t="s">
+        <v>8</v>
       </c>
       <c r="G395" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
     </row>
     <row r="398">
       <c r="B398">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C398" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D398">
-        <v>1500</v>
+        <v>5590</v>
       </c>
       <c r="E398">
-        <v>545</v>
-      </c>
-      <c r="F398">
-        <v>817500</v>
+        <v>1907</v>
+      </c>
+      <c r="F398" t="s">
+        <v>184</v>
       </c>
       <c r="G398" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
     </row>
     <row r="399">
       <c r="B399">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C399" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="D399">
-        <v>4920</v>
+        <v>2540</v>
       </c>
       <c r="E399">
-        <v>1328</v>
-      </c>
-      <c r="F399">
-        <v>6533760</v>
+        <v>2200</v>
+      </c>
+      <c r="F399" t="s">
+        <v>141</v>
       </c>
       <c r="G399" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4618,77 +4873,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
